--- a/data/processed/state_overviews/utah_overview.xlsx
+++ b/data/processed/state_overviews/utah_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>718</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Box Elder County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Cache County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>31</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Carbon County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>8</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Davis County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>38</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Duchesne County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Emery County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Garfield County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Grand County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>18</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Iron County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Juab County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Kane County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Salt Lake County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>358</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>San Juan County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>5</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Sanpete County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>6</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Sevier County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>5</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Summit County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>40</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Tooele County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>4</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Uintah County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Utah County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>83</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Wasatch County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>6</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>33</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Weber County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>55</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,27 +1202,29 @@
           <t>Rich County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1184,27 +1234,29 @@
           <t>Millard County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1214,27 +1266,29 @@
           <t>Piute County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1244,27 +1298,61 @@
           <t>Daggett County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$1,665,786,876</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.73%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-23.91%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>72.14%</t>
         </is>
       </c>
     </row>
@@ -1319,8 +1407,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>206</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1349,8 +1439,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>224</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1379,8 +1471,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>191</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1409,8 +1503,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>97</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1439,8 +1535,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B6">
-        <v>718</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1514,8 +1612,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>183</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1544,8 +1644,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>242</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1574,8 +1676,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>99</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1604,8 +1708,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>82</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1634,8 +1740,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>80</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1664,8 +1772,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>32</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1694,8 +1804,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>718</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1769,8 +1881,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>93</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1799,8 +1913,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>159</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>45</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>67</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1919,8 +2041,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>177</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1949,8 +2073,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1979,8 +2105,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>39</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2009,8 +2137,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>4</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2039,8 +2169,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>119</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2069,8 +2201,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2099,8 +2233,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>718</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/utah_overview.xlsx
+++ b/data/processed/state_overviews/utah_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,123 +431,123 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Box Elder County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$6,366,119</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-8.48%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-83.00%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cache County</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$60,603,482</t>
+          <t>$1,665,786,876</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.68%</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.97%</t>
+          <t>-23.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>74.19%</t>
+          <t>72.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Carbon County</t>
+          <t>Box Elder County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$20,921,831</t>
+          <t>$6,366,119</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>-8.48%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-67.28%</t>
+          <t>-83.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,251 +559,251 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Davis County</t>
+          <t>Cache County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$140,229,596</t>
+          <t>$60,603,482</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>11.68%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.52%</t>
+          <t>-20.97%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.68%</t>
+          <t>74.19%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Duchesne County</t>
+          <t>Carbon County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,080,847</t>
+          <t>$20,921,831</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-43.81%</t>
+          <t>-67.28%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emery County</t>
+          <t>Davis County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2,616,748</t>
+          <t>$140,229,596</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.85%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-37.78%</t>
+          <t>-16.52%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>73.68%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Garfield County</t>
+          <t>Duchesne County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$101,786</t>
+          <t>$2,080,847</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.05%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.72%</t>
+          <t>-43.81%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grand County</t>
+          <t>Emery County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$9,590,593</t>
+          <t>$2,616,748</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.01%</t>
+          <t>24.85%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.63%</t>
+          <t>-37.78%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Iron County</t>
+          <t>Garfield County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$11,912,615</t>
+          <t>$101,786</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>27.05%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-82.15%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Juab County</t>
+          <t>Grand County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$3,175,040</t>
+          <t>$9,590,593</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>18.01%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.59%</t>
+          <t>-10.63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>61.11%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kane County</t>
+          <t>Iron County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$170,526</t>
+          <t>$11,912,615</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>4.08%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-21.89%</t>
+          <t>-82.15%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -815,59 +815,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Salt Lake County</t>
+          <t>Juab County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$902,347,176</t>
+          <t>$3,175,040</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-22.27%</t>
+          <t>5.59%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.55%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>San Juan County</t>
+          <t>Kane County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$30,069,443</t>
+          <t>$170,526</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.07%</t>
+          <t>1.01%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-53.04%</t>
+          <t>-21.89%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -879,39 +879,39 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sanpete County</t>
+          <t>Salt Lake County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>358</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,822,239</t>
+          <t>$902,347,176</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45.57%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26.61%</t>
+          <t>-22.27%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>69.55%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sevier County</t>
+          <t>San Juan County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -921,177 +921,177 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$3,891,632</t>
+          <t>$30,069,443</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.01%</t>
+          <t>11.07%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-33.79%</t>
+          <t>-53.04%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Summit County</t>
+          <t>Sanpete County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$35,386,069</t>
+          <t>$1,822,239</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.11%</t>
+          <t>45.57%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-3.43%</t>
+          <t>26.61%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tooele County</t>
+          <t>Sevier County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$21,128,522</t>
+          <t>$3,891,632</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15.11%</t>
+          <t>12.01%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-47.46%</t>
+          <t>-33.79%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Uintah County</t>
+          <t>Summit County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$7,085,622</t>
+          <t>$35,386,069</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>14.11%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-86.33%</t>
+          <t>-3.43%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Utah County</t>
+          <t>Tooele County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$221,809,405</t>
+          <t>$21,128,522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>15.11%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-41.91%</t>
+          <t>-47.46%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>78.31%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wasatch County</t>
+          <t>Uintah County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$3,267,319</t>
+          <t>$7,085,622</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.21%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-29.97%</t>
+          <t>-86.33%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1103,256 +1103,160 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Utah County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$64,070,899</t>
+          <t>$221,809,405</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-53.00%</t>
+          <t>-41.91%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>75.76%</t>
+          <t>78.31%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Wasatch County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$3,520,279</t>
+          <t>$3,267,319</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>46.69%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35.16%</t>
+          <t>-29.97%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Weber County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$113,619,088</t>
+          <t>$64,070,899</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-35.78%</t>
+          <t>-53.00%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>75.76%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rich County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$3,520,279</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>46.69%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>35.16%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Millard County</t>
+          <t>Weber County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$113,619,088</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-35.78%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Piute County</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Daggett County</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>718</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>$1,665,786,876</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.73%</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>72.14%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1372,192 +1276,224 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$411,910,437</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-24.99%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70.87%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$499,324,839</t>
+          <t>$1,665,786,876</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-28.79%</t>
+          <t>-23.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.66%</t>
+          <t>72.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$391,412,949</t>
+          <t>$411,910,437</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.42%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-22.49%</t>
+          <t>-24.99%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.30%</t>
+          <t>70.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$363,138,651</t>
+          <t>$499,324,839</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.75%</t>
+          <t>8.56%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-22.73%</t>
+          <t>-28.79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.07%</t>
+          <t>73.66%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,665,786,876</t>
+          <t>$391,412,949</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-23.91%</t>
+          <t>-22.49%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.14%</t>
+          <t>73.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4th Congressional district</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$363,138,651</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-22.73%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>69.07%</t>
         </is>
       </c>
     </row>
@@ -1582,34 +1518,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1641,128 +1577,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$372,798,560</t>
+          <t>$859,150,302</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-32.08%</t>
+          <t>-10.28%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.69%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$29,036,290</t>
+          <t>$372,798,560</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.65%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.11%</t>
+          <t>-32.08%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.76%</t>
+          <t>77.69%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$382,453,296</t>
+          <t>$29,036,290</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>11.65%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-74.87%</t>
+          <t>-14.11%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.17%</t>
+          <t>75.76%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$859,150,302</t>
+          <t>$382,453,296</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.28%</t>
+          <t>-74.87%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>73.17%</t>
         </is>
       </c>
     </row>
@@ -1851,34 +1787,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1910,7 +1846,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1942,7 +1878,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1974,7 +1910,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2038,7 +1974,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2070,7 +2006,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2102,7 +2038,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2134,7 +2070,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2166,64 +2102,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$242,105,131</t>
+          <t>$48,788,185</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.80%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61.34%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$48,788,185</t>
+          <t>$242,105,131</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>-14.80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>61.34%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/utah_overview.xlsx
+++ b/data/processed/state_overviews/utah_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>72.14%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,665,786,876</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.14%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.14%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,665,786,876</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.14%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$6,366,119</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>-8.48%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-83.00%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>74.19%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$60,603,482</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.68%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-20.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>74.19%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$20,921,831</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.09%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-67.28%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>73.68%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$140,229,596</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.82%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.52%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>73.68%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,080,847</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.87%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-43.81%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$2,616,748</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>24.85%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-37.78%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$101,786</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>27.05%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>10.72%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$9,590,593</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>18.01%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-10.63%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$11,912,615</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>4.08%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-82.15%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$3,175,040</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>10.96%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>5.59%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$170,526</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1.01%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-21.89%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>69.55%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>358</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$902,347,176</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>9.68%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-22.27%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>69.55%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$30,069,443</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>11.07%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-53.04%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,822,239</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>45.57%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>26.61%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$3,891,632</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>12.01%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-33.79%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$35,386,069</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>14.11%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-3.43%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$21,128,522</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>15.11%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-47.46%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$7,085,622</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>8.17%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-86.33%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>78.31%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$221,809,405</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-41.91%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>78.31%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$3,267,319</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>8.21%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-29.97%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>75.76%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$64,070,899</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>8.78%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-53.00%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>75.76%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$3,520,279</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>46.69%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>35.16%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$113,619,088</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-35.78%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -1281,27 +1281,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1313,27 +1313,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1345,155 +1345,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.14%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,665,786,876</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>70.87%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>206</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$411,910,437</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.03%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-24.99%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>70.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>73.66%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>224</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$499,324,839</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.56%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-28.79%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>73.66%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>73.30%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>191</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$391,412,949</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.42%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-22.49%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>73.30%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.07%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$363,138,651</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.75%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-22.73%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.07%</t>
         </is>
       </c>
     </row>
@@ -1518,187 +1518,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.85%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$20,324,150</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.56%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-18.96%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.85%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77.69%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$859,150,302</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>$372,798,560</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.28%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>-32.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>75.76%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$372,798,560</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>$29,036,290</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-32.08%</t>
+          <t>11.65%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77.69%</t>
+          <t>-14.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>73.17%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$29,036,290</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.65%</t>
+          <t>$382,453,296</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.11%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.76%</t>
+          <t>-74.87%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$382,453,296</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>$859,150,302</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-74.87%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.17%</t>
+          <t>-10.28%</t>
         </is>
       </c>
     </row>
@@ -1710,27 +1710,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>59.38%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,024,278</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>41.39%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-13.80%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>59.38%</t>
         </is>
       </c>
     </row>
@@ -1742,27 +1742,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.14%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,665,786,876</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.14%</t>
         </is>
       </c>
     </row>
@@ -1787,155 +1787,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>76.34%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$53,901,018</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>7.64%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-19.71%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>76.34%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>90.57%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$814,755,190</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.37%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-85.26%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>90.57%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>57.78%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$43,451,828</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.68%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-8.49%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>57.78%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>58.21%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$186,505,861</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.76%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-7.62%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>58.21%</t>
         </is>
       </c>
     </row>
@@ -1947,219 +1947,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$23,597,732</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>19.70%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.26%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>74.58%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$234,857,655</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.15%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-26.10%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>74.58%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$627,919</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>12.14%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>14.29%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>74.36%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$17,061,464</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-21.03%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>74.36%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$134,893</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>23.11%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>16.60%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>61.34%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$48,788,185</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.24%</t>
+          <t>$242,105,131</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>-14.80%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$242,105,131</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>$48,788,185</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.80%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.34%</t>
+          <t>0.50%</t>
         </is>
       </c>
     </row>
@@ -2171,27 +2171,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>72.14%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,665,786,876</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.73%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-23.91%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72.14%</t>
         </is>
       </c>
     </row>
